--- a/VR Karting/Results/3097.xlsx
+++ b/VR Karting/Results/3097.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/forclass/Source/Masters/VR Karting/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C957B4-1E6C-BC4B-8ED0-F1C452831677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A871E5-B2BD-9C49-A255-C5589505FEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="760" windowWidth="16940" windowHeight="21580" xr2:uid="{233887AC-3B03-674C-BBCD-EB08225F91B1}"/>
+    <workbookView xWindow="1000" yWindow="760" windowWidth="16940" windowHeight="21580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" r:id="rId1"/>
     <sheet name="Session 1" sheetId="2" r:id="rId2"/>
     <sheet name="Mini 1" sheetId="3" r:id="rId3"/>
-    <sheet name="Session 2" sheetId="5" r:id="rId4"/>
-    <sheet name="Mini 2" sheetId="4" r:id="rId5"/>
+    <sheet name="Session 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Mini 2" sheetId="5" r:id="rId5"/>
+    <sheet name="Word Accuracies" sheetId="6" r:id="rId6"/>
+    <sheet name="Contrast Accuracies" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -40,226 +39,247 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="78">
+  <si>
+    <t>heed</t>
+  </si>
+  <si>
+    <t>PinkNoise</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hid</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>had</t>
+  </si>
+  <si>
+    <t>hood</t>
+  </si>
   <si>
     <t>bait</t>
   </si>
   <si>
+    <t>hud</t>
+  </si>
+  <si>
+    <t>who'd</t>
+  </si>
+  <si>
+    <t>hod</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>boat</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>had</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>heed</t>
-  </si>
-  <si>
-    <t>hid</t>
-  </si>
-  <si>
-    <t>hod</t>
-  </si>
-  <si>
-    <t>hood</t>
-  </si>
-  <si>
-    <t>hud</t>
-  </si>
-  <si>
-    <t>who'd</t>
+    <t>SingleTalker</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>sat</t>
   </si>
   <si>
     <t>cot</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>wooed</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>nut</t>
+  </si>
+  <si>
+    <t>filled</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>hut</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>itch</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>reach</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>pup</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>fond</t>
+  </si>
+  <si>
+    <t>shooed</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
+    <t>bull</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>grin</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
     <t>not</t>
   </si>
   <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>scene</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Boole</t>
+  </si>
+  <si>
+    <t>cooed</t>
+  </si>
+  <si>
+    <t>bet</t>
+  </si>
+  <si>
+    <t>sob</t>
+  </si>
+  <si>
+    <t>fool</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
     <t>field</t>
   </si>
   <si>
-    <t>nut</t>
-  </si>
-  <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>wooed</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>cooed</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>each</t>
-  </si>
-  <si>
-    <t>filled</t>
-  </si>
-  <si>
-    <t>bet</t>
-  </si>
-  <si>
-    <t>sin</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>bot</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>grin</t>
-  </si>
-  <si>
-    <t>Ken</t>
-  </si>
-  <si>
-    <t>scene</t>
-  </si>
-  <si>
-    <t>but</t>
-  </si>
-  <si>
-    <t>hut</t>
-  </si>
-  <si>
-    <t>mat</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>chip</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>tan</t>
-  </si>
-  <si>
-    <t>bull</t>
-  </si>
-  <si>
-    <t>pup</t>
-  </si>
-  <si>
-    <t>sob</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>pat</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>sat</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>pet</t>
-  </si>
-  <si>
-    <t>shooed</t>
-  </si>
-  <si>
-    <t>Luke</t>
-  </si>
-  <si>
-    <t>bat</t>
-  </si>
-  <si>
-    <t>fool</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>itch</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
-    <t>Boole</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>men</t>
-  </si>
-  <si>
-    <t>ten</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>pull</t>
-  </si>
-  <si>
-    <t>reach</t>
-  </si>
-  <si>
-    <t>fond</t>
-  </si>
-  <si>
-    <t>fund</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>should</t>
-  </si>
-  <si>
-    <t>PinkNoise</t>
-  </si>
-  <si>
-    <t>SingleTalker</t>
-  </si>
-  <si>
-    <t>Clear</t>
+    <t>WORD</t>
+  </si>
+  <si>
+    <t>Session 1</t>
+  </si>
+  <si>
+    <t>CONTRAST</t>
+  </si>
+  <si>
+    <t>ɛ vs. æ</t>
+  </si>
+  <si>
+    <t>ɪ vs. iː</t>
+  </si>
+  <si>
+    <t>ʊ vs. uː</t>
+  </si>
+  <si>
+    <t>ʌ vs. ɑ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,6 +295,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,12 +311,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -298,9 +340,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,10 +660,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D0B665-0D80-6748-B694-D4D85F2C5A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -626,794 +671,794 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="b">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B33" t="b">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="b">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B45" t="b">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B46" t="b">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B47" t="b">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B48" t="b">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B49" t="b">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="b">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B51" t="b">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B53" t="b">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B54" t="b">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B56" t="b">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="b">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B60" t="b">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="b">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64" t="b">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B66" t="b">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B72" t="b">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1423,18 +1468,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B3BF3A-D277-7649-B3B0-3E1C603F0FAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B1" t="b">
         <v>1</v>
@@ -1445,7 +1490,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1456,7 +1501,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1467,7 +1512,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1478,7 +1523,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1489,7 +1534,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1500,7 +1545,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1511,7 +1556,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -1522,7 +1567,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -1533,7 +1578,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -1544,7 +1589,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -1555,7 +1600,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1566,7 +1611,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -1577,7 +1622,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -1588,7 +1633,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -1599,7 +1644,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -1610,7 +1655,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -1621,7 +1666,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -1632,7 +1677,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -1643,7 +1688,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -1654,7 +1699,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -1665,7 +1710,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -1676,7 +1721,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -1687,7 +1732,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -1698,7 +1743,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -1709,7 +1754,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -1720,7 +1765,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B27" t="b">
         <v>1</v>
@@ -1731,7 +1776,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
@@ -1742,7 +1787,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
@@ -1753,7 +1798,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -1764,7 +1809,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -1775,7 +1820,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -1786,7 +1831,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -1797,7 +1842,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -1808,7 +1853,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
@@ -1819,7 +1864,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
@@ -1830,7 +1875,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
@@ -1841,7 +1886,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
@@ -1852,7 +1897,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
@@ -1863,7 +1908,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -1874,7 +1919,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B41" t="b">
         <v>0</v>
@@ -1885,7 +1930,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B42" t="b">
         <v>1</v>
@@ -1896,7 +1941,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B43" t="b">
         <v>0</v>
@@ -1907,7 +1952,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B44" t="b">
         <v>1</v>
@@ -1918,7 +1963,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B45" t="b">
         <v>1</v>
@@ -1929,7 +1974,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B46" t="b">
         <v>0</v>
@@ -1940,7 +1985,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B47" t="b">
         <v>0</v>
@@ -1951,7 +1996,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B48" t="b">
         <v>0</v>
@@ -1962,7 +2007,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B49" t="b">
         <v>0</v>
@@ -1973,7 +2018,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B50" t="b">
         <v>0</v>
@@ -1984,7 +2029,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B51" t="b">
         <v>0</v>
@@ -1995,7 +2040,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B52" t="b">
         <v>1</v>
@@ -2006,7 +2051,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B53" t="b">
         <v>0</v>
@@ -2017,7 +2062,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B54" t="b">
         <v>1</v>
@@ -2028,7 +2073,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B55" t="b">
         <v>1</v>
@@ -2039,7 +2084,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B56" t="b">
         <v>0</v>
@@ -2050,7 +2095,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B57" t="b">
         <v>1</v>
@@ -2061,7 +2106,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B58" t="b">
         <v>1</v>
@@ -2072,7 +2117,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B59" t="b">
         <v>1</v>
@@ -2083,7 +2128,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B60" t="b">
         <v>0</v>
@@ -2094,7 +2139,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B61" t="b">
         <v>0</v>
@@ -2105,7 +2150,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
@@ -2116,7 +2161,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -2127,7 +2172,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B64" t="b">
         <v>0</v>
@@ -2138,7 +2183,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B65" t="b">
         <v>1</v>
@@ -2149,7 +2194,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B66" t="b">
         <v>0</v>
@@ -2160,7 +2205,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B67" t="b">
         <v>0</v>
@@ -2171,7 +2216,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B68" t="b">
         <v>1</v>
@@ -2182,7 +2227,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B69" t="b">
         <v>1</v>
@@ -2193,7 +2238,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B70" t="b">
         <v>1</v>
@@ -2204,7 +2249,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B71" t="b">
         <v>1</v>
@@ -2215,7 +2260,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B72" t="b">
         <v>0</v>
@@ -2226,7 +2271,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
@@ -2237,7 +2282,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B74" t="b">
         <v>1</v>
@@ -2248,7 +2293,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B75" t="b">
         <v>0</v>
@@ -2259,7 +2304,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -2270,7 +2315,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B77" t="b">
         <v>1</v>
@@ -2281,7 +2326,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B78" t="b">
         <v>1</v>
@@ -2292,7 +2337,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B79" t="b">
         <v>1</v>
@@ -2303,7 +2348,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B80" t="b">
         <v>1</v>
@@ -2314,7 +2359,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B81" t="b">
         <v>0</v>
@@ -2325,7 +2370,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B82" t="b">
         <v>1</v>
@@ -2336,7 +2381,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B83" t="b">
         <v>0</v>
@@ -2347,7 +2392,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B84" t="b">
         <v>1</v>
@@ -2358,7 +2403,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B85" t="b">
         <v>1</v>
@@ -2369,7 +2414,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B86" t="b">
         <v>0</v>
@@ -2380,7 +2425,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B87" t="b">
         <v>0</v>
@@ -2391,7 +2436,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B88" t="b">
         <v>1</v>
@@ -2402,7 +2447,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B89" t="b">
         <v>0</v>
@@ -2413,7 +2458,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B90" t="b">
         <v>0</v>
@@ -2424,7 +2469,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B91" t="b">
         <v>1</v>
@@ -2435,7 +2480,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B92" t="b">
         <v>1</v>
@@ -2446,7 +2491,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B93" t="b">
         <v>1</v>
@@ -2457,7 +2502,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B94" t="b">
         <v>1</v>
@@ -2468,7 +2513,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B95" t="b">
         <v>0</v>
@@ -2479,7 +2524,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B96" t="b">
         <v>1</v>
@@ -2490,7 +2535,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B97" t="b">
         <v>0</v>
@@ -2501,7 +2546,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B98" t="b">
         <v>0</v>
@@ -2512,7 +2557,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B99" t="b">
         <v>1</v>
@@ -2523,7 +2568,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B100" t="b">
         <v>0</v>
@@ -2534,7 +2579,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B101" t="b">
         <v>1</v>
@@ -2545,7 +2590,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B102" t="b">
         <v>1</v>
@@ -2556,7 +2601,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B103" t="b">
         <v>0</v>
@@ -2567,7 +2612,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B104" t="b">
         <v>1</v>
@@ -2578,7 +2623,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B105" t="b">
         <v>1</v>
@@ -2589,7 +2634,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B106" t="b">
         <v>1</v>
@@ -2600,7 +2645,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="B107" t="b">
         <v>1</v>
@@ -2611,7 +2656,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B108" t="b">
         <v>0</v>
@@ -2622,7 +2667,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B109" t="b">
         <v>1</v>
@@ -2633,7 +2678,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B110" t="b">
         <v>0</v>
@@ -2644,7 +2689,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B111" t="b">
         <v>1</v>
@@ -2655,7 +2700,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B112" t="b">
         <v>0</v>
@@ -2671,7 +2716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204745BE-CCF8-B344-A31C-0F3888C466C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2682,7 +2727,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B1" t="b">
         <v>0</v>
@@ -2690,7 +2735,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2698,7 +2743,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2706,7 +2751,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2714,7 +2759,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2722,7 +2767,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2730,7 +2775,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2738,7 +2783,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2751,7 +2796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5783F42-7E50-E749-A101-703E1AA2F81D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2766,7 +2811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5A3CB3-E883-4A4E-BBF5-BA6B55D98E7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2778,4 +2823,532 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/VR Karting/Results/3097.xlsx
+++ b/VR Karting/Results/3097.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1000" yWindow="760" windowWidth="16940" windowHeight="21580" tabRatio="600" firstSheet="3" activeTab="10" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1000" yWindow="760" windowWidth="16940" windowHeight="21580" tabRatio="600" firstSheet="7" activeTab="13" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,9 +17,13 @@
     <sheet name="Session 4" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Session 5" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Mini 5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Mini 4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Word Accuracies" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Contrast Accuracies" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Session 6" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Mini 6" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Session 7" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Mini 7" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Mini 4" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Contrast Accuracies" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3062,7 +3066,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
@@ -3154,6 +3158,3154 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.634377</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2.626625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.466515</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.559227</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2.23378</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.9752197</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.9005585</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.428513</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4.649887</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.8946686</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1.85553</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>3.93399</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.426682</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.8831482</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.27504</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1.776535</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1.274139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.365662</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.115997</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2.121216</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.232758</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.688782</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2.023117</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.607727</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.9800415</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.060333</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5494995</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2.464844</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2.486206</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.862122</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2.083923</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.206512</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>4.956146</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.9892273</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.619476</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.9991455</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.224365</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.801208</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.265625</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>3.26239</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.733521</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>3.629395</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2.53656</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.797302</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.109406</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.141998</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.278107</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2.117706</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.7865906</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2.876312</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.463684</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5774536</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2.36676</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.8037415</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.67041</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.7675476</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.606407</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>2.037169</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.7122307</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.332165</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.9281464</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.034969</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>4.067558</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.6017456</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.635147</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>2.193008</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2.756477</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.4543915</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>2.03569</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>5.829689</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>3.594803</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.545959</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.116104</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.8942719</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.6207733</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>2.000259</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2.456436</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.598038</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2.094116</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.396576</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>3.258392</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.8426361</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.295639</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.953064</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.9279785</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>2.813583</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.12294</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.458405</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.686127</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.567902</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.8531493999999999</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.486176</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>2.403381</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.671265</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2.946655</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.810638</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>3.02951</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>2.065063</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.9735107</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.3570251</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.275391</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.551178</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.723969</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.098358</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>2.175476</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>2.913544</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.656128</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.6295471</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.8066406</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.780975</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.046234</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.6636353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2.530556</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3.967575</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.680969</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2.194344</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.9781342</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.557907</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>4.327995</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.791168</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.255775</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1.526749</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.19574</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>5.476044</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1.410965</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.882492</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.69133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>3.602188</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>4.125504</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.665665</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.921402</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.566177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.288895</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.27327</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>4.853348</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.03804</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.9064331</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3.107452</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.976288</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.724823</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.9729004</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.70578</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.763824</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>3.061157</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.8101501</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>5.24823</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>8.799773999999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>6.143005</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.8326721</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.556366</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.6839904999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.456177</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.918732</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.7640686</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.2341</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.30896</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.065552</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.881683</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.785675</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.664795</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1.314087</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.299042</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.046356</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.870819</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2.940613</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.4289246</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.532227</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.9260559</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>5.63566</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.7123604</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>5.014511</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.864937</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.749176</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.592461</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.106071</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.9680786</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2.399422</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.413109</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.7565307999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>3.566925</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>4.393219</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>2.301193</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.232391</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>1.129517</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>3.320526</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2.259766</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.289459</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>3.812546</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.9744568</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.250885</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.479156</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1.32048</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.364151</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.530441</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1.012817</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2.072906</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2.056259</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>3.344833</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.156754</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.518311</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2.204742</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>2.0466</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>3.579498</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.884247</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.182312</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2.639526</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>3.928711</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.4949646</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.399109</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>2.174866</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.6713867</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.469757</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.6733093</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>2.102356</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.8557434</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.8822632</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>5.739197</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.5957947</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.7641907</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.778534</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.7366638</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>0.8906555</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.908051</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.8232422</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3252,13 +6404,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3297,6 +6449,16 @@
           <t>Session 5</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -3319,6 +6481,12 @@
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -3341,6 +6509,12 @@
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -3363,6 +6537,12 @@
       <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -3385,6 +6565,12 @@
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -3407,6 +6593,12 @@
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -3429,6 +6621,12 @@
       <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -3451,6 +6649,12 @@
       <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -3473,6 +6677,12 @@
       <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -3495,6 +6705,12 @@
       <c r="F10" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -3517,6 +6733,12 @@
       <c r="F11" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -3539,6 +6761,12 @@
       <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -3561,6 +6789,12 @@
       <c r="F13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -3583,6 +6817,12 @@
       <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -3605,6 +6845,12 @@
       <c r="F15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -3627,6 +6873,12 @@
       <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -3649,6 +6901,12 @@
       <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -3671,6 +6929,12 @@
       <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -3693,6 +6957,12 @@
       <c r="F19" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -3715,6 +6985,12 @@
       <c r="F20" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -3737,6 +7013,12 @@
       <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -3759,6 +7041,12 @@
       <c r="F22" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -3781,6 +7069,12 @@
       <c r="F23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -3803,6 +7097,12 @@
       <c r="F24" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -3825,6 +7125,12 @@
       <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -3847,6 +7153,12 @@
       <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -3869,6 +7181,12 @@
       <c r="F27" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -3891,6 +7209,12 @@
       <c r="F28" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -3913,6 +7237,12 @@
       <c r="F29" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -3935,6 +7265,12 @@
       <c r="F30" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -3957,6 +7293,12 @@
       <c r="F31" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G31" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -3979,6 +7321,12 @@
       <c r="F32" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -4001,6 +7349,12 @@
       <c r="F33" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -4023,6 +7377,12 @@
       <c r="F34" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -4045,6 +7405,12 @@
       <c r="F35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -4067,6 +7433,12 @@
       <c r="F36" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -4089,6 +7461,12 @@
       <c r="F37" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -4111,6 +7489,12 @@
       <c r="F38" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -4133,6 +7517,12 @@
       <c r="F39" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -4155,6 +7545,12 @@
       <c r="F40" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -4177,6 +7573,12 @@
       <c r="F41" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -4199,6 +7601,12 @@
       <c r="F42" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -4221,6 +7629,12 @@
       <c r="F43" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -4243,6 +7657,12 @@
       <c r="F44" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -4265,6 +7685,12 @@
       <c r="F45" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -4287,6 +7713,12 @@
       <c r="F46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -4309,6 +7741,12 @@
       <c r="F47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -4331,6 +7769,12 @@
       <c r="F48" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -4353,6 +7797,12 @@
       <c r="F49" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -4375,6 +7825,12 @@
       <c r="F50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -4397,6 +7853,12 @@
       <c r="F51" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -4419,6 +7881,12 @@
       <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="G52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -4441,6 +7909,12 @@
       <c r="F53" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -4463,6 +7937,12 @@
       <c r="F54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -4485,6 +7965,12 @@
       <c r="F55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="G55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -4507,6 +7993,12 @@
       <c r="F56" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="G56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -4527,6 +8019,12 @@
         <v>1</v>
       </c>
       <c r="F57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4535,13 +8033,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4580,6 +8078,16 @@
           <t>Session 5</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4602,6 +8110,12 @@
       <c r="F2" t="n">
         <v>0.8571428571428571</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4624,6 +8138,12 @@
       <c r="F3" t="n">
         <v>0.5357142857142857</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7857142857142857</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4646,6 +8166,12 @@
       <c r="F4" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4667,6 +8193,12 @@
       </c>
       <c r="F5" t="n">
         <v>0.5714285714285714</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
